--- a/Set-up.xlsx
+++ b/Set-up.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="540" windowWidth="19815" windowHeight="9150" tabRatio="450"/>
+    <workbookView xWindow="390" yWindow="540" windowWidth="19815" windowHeight="9150" tabRatio="151"/>
   </bookViews>
   <sheets>
     <sheet name="Planos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="178">
   <si>
     <t>ID-PI</t>
   </si>
@@ -477,6 +477,85 @@
   </si>
   <si>
     <t>Tx. entrega (PF/dia)</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Este serviço deve ser escolhido na primeira demanda para a CONTRATADA e não haverá remuneração.</t>
+  </si>
+  <si>
+    <t>O Projeto de Melhoria (enhancement), também denominado de projeto de melhoria funcional ou manutenção evolutiva, está associado às mudanças em requisitos funcionais da aplicação, ou seja, à inclusão de novas funcionalidades, alteração ou exclusão de funcionalidades em aplicações implantadas.</t>
+  </si>
+  <si>
+    <t>É o projeto para desenvolver e entregar a primeira versão de uma aplicação de software. Seu tamanho funcional é a medida das funcionalidades entregues ao usuário no final do projeto.</t>
+  </si>
+  <si>
+    <t>A manutenção corretiva altera o software para correção de defeitos em funcionalidades de sistemas em homologação ou produção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São consideradas nesta categoria as demandas de manutenção adaptativa associadas a solicitações que envolvem aspectos não funcionais, sem alteração em requisitos funcionais. </t>
+  </si>
+  <si>
+    <t>Fora de Escopo da contratação</t>
+  </si>
+  <si>
+    <t>São demandas de documentação ou atualização de documentação de sistemas legados</t>
+  </si>
+  <si>
+    <t>São demandas de documentação ou atualização de documentação de sistemas legados ou novos projetos, onde a documentação preconizada não satisfaz a CONTRATADA, sendo necessária geração de novos documentos</t>
+  </si>
+  <si>
+    <t>As demandas de correção de problemas em base de dados estão associadas a atualizações diretamente no banco de dados, sem gestão de configuração destas atualizações, que devem ser requisitadas e aprovadas pela CONTRATANTE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manutenção em interface, denominada na literatura de manutenção cosmética, é associada às demandas de alterações de interface, por exemplo: fonte de letra, cores de telas, logotipos, mudança de botões na tela, mudança de posição de campos ou texto na tela. </t>
+  </si>
+  <si>
+    <t>Este tipo de apuração especial é um projeto que inclui a geração de procedimentos para atualização da base de dados. Deve-se destacar que estas funções são executadas apenas uma vez, não fazendo parte da aplicação, visando a correção de dados incorretos na base de dados da aplicação ou atualização em função de modificação da estrutura de dados. Normalmente, nesse tipo de atualização são afetados múltiplos registros.</t>
+  </si>
+  <si>
+    <t>Nessa Apuração Especial – Base de Dados, o usuário solicita uma consulta prévia das informações. Deve-se ressaltar que essa consulta deve ser realizada antes da construção da funcionalidade, não se trata de homologação. A consulta prévia não é definida pela CONTRATADA, obrigatoriamente essa deve ser solicitada pelo CONTRATANTE para a avaliação da viabilidade de implementar a Apuração Especial -Base de Dados. Esta consulta prévia, classificada como Consulta Externa ou Saída Externa deve ser dimensionada considerando-se o tamanho da funcionalidade em questão.</t>
+  </si>
+  <si>
+    <t>Esse caso de Apuração Especial - Base de Dados ocorre após uma demanda de consulta prévia, deve-se aplicar um fator de 60% na fórmula de contagem da Apuração Especial - Base de Dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este tipo de apuração especial é um projeto que inclui a geração de relatórios em uma ou mais mídias para o usuário. Em alguns casos, são solicitadas extrações de dados e envio dos dados para outros sistemas. Caso, neste envio de dados, sejam requisitadas atualizações no sistema de origem, então essas funções transacionais são Saídas Externas, devido à atualização do Arquivo Lógico Interno. Deve-se destacar que essas funções são executadas apenas uma vez, não fazendo parte da aplicação. Nestes casos, considera-se contagem de pontos de função das funcionalidades desenvolvidas.
+</t>
+  </si>
+  <si>
+    <t>Em casos onde a CONTRATANTE tem interesse em executar uma apuração especial mais de uma vez. A reexecução de uma apuração especial, esta deve ser dimensionada com a aplicação de um fator redutor de 10% na contagem de pontos de função da apuração especial em questão.</t>
+  </si>
+  <si>
+    <t>Nesta seção são tratados desenvolvimentos e manutenções específicas em páginas estáticas de portais, intranets ou websites. As demandas desta seção abrangem a publicação de páginas Web com conteúdo estático. Por exemplo: criação de página HTML, atualização de menu estático, atualização de texto ou banner estáticos em páginas HTML existentes. Caso o desenvolvimento de páginas estáticas esteja contido em um projeto de desenvolvimento, então elas serão contabilizadas no projeto de desenvolvimento e não devem ser mensuradas em separado. Ou seja, esta seção se aplica quando ocorrer a demanda exclusivamente para o desenvolvimento ou manutenção de páginas estáticas.</t>
+  </si>
+  <si>
+    <t>Aferição do tamanho em PF das funcionalidades verificadas em que o CONTRATANTE reportou comportamento anormal ou indevido no sistema. A verificação de erros deve estar associada somente a funcionalidades específicas do sistema, não sendo aplicado a erros de servidores de aplicação, de arquivos ou de banco de dados, de rede ou do barramento de serviços e infraestrutura no geral;</t>
+  </si>
+  <si>
+    <t>Utilizada quando a CONTRATANTE ou RESPONSÁVEL TÉCNICA opta pela contratação especifica de testes em funcionalidades que não estão no projeto de software a ser medido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJETO DE CONVERSÃO DE DADOS </t>
+  </si>
+  <si>
+    <t>O projeto de conversão, ou migração, de dados deve ser contado como um novo projeto de desenvolvimento de um sistema.</t>
+  </si>
+  <si>
+    <t>Na contagem indicativa determina-se a quantidade das funções do tipo dado (ALIs e AIEs) e calcula-se o total total de pontos de função não ajustados da aplicação da seguinte forma: tamanho indicativo (pf) = 35 x número de ALIs + 15 x número de AIEs</t>
+  </si>
+  <si>
+    <t>Na contagem estimativa determina-se todas as funções de todos os tipos (ALI, AIE, EE, SE, CE). Toda função do tipo dado (ALI, AIE) tem sua complexidade funcional avaliada como Baixa, e toda função transacional (EE, SE, CE) é avaliada como de complexidade média.</t>
+  </si>
+  <si>
+    <t>A contagem detalhada é a contagem usual de pontos de função onde determina-se todas as funções de todos os tipos (ALI, AIE, EE, SE, CE) e determina-se a complexidade de cada função (Baixa, Média, Alta)</t>
+  </si>
+  <si>
+    <t>São demandadas manutenções em componentes, que implementam regras de negócio, específicos de uma aplicação e estes são reusados por várias funcionalidades da aplicação.</t>
   </si>
 </sst>
 </file>
@@ -573,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,6 +672,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,52 +974,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA147"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
-    <col min="9" max="9" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="10">
+      <c r="G1" s="10">
         <v>20170628</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,25 +1029,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
@@ -973,26 +1058,29 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>142</v>
       </c>
@@ -1000,26 +1088,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -1027,26 +1118,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>142</v>
       </c>
@@ -1054,26 +1148,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>142</v>
       </c>
@@ -1081,26 +1178,29 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>142</v>
       </c>
@@ -1108,24 +1208,26 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1144,8 +1246,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -1153,25 +1256,28 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>142</v>
       </c>
@@ -1179,25 +1285,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>142</v>
       </c>
@@ -1205,25 +1314,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>143</v>
       </c>
@@ -1231,25 +1343,28 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>143</v>
       </c>
@@ -1257,25 +1372,28 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>143</v>
       </c>
@@ -1283,25 +1401,28 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>143</v>
       </c>
@@ -1309,25 +1430,28 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>143</v>
       </c>
@@ -1335,25 +1459,28 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>143</v>
       </c>
@@ -1361,25 +1488,28 @@
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
@@ -1387,25 +1517,28 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
@@ -1413,25 +1546,28 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -1439,25 +1575,28 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
@@ -1465,25 +1604,28 @@
         <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -1491,25 +1633,28 @@
         <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
@@ -1517,25 +1662,28 @@
         <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>144</v>
       </c>
@@ -1543,25 +1691,28 @@
         <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>144</v>
       </c>
@@ -1569,25 +1720,28 @@
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>144</v>
       </c>
@@ -1595,25 +1749,28 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>144</v>
       </c>
@@ -1621,25 +1778,28 @@
         <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>144</v>
       </c>
@@ -1647,25 +1807,28 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>144</v>
       </c>
@@ -1673,25 +1836,28 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>144</v>
       </c>
@@ -1699,25 +1865,28 @@
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>144</v>
       </c>
@@ -1725,25 +1894,28 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -1751,25 +1923,28 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>144</v>
       </c>
@@ -1777,25 +1952,28 @@
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>144</v>
       </c>
@@ -1803,25 +1981,28 @@
         <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -1829,25 +2010,28 @@
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>144</v>
       </c>
@@ -1855,25 +2039,28 @@
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>144</v>
       </c>
@@ -1881,25 +2068,28 @@
         <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>144</v>
       </c>
@@ -1907,25 +2097,28 @@
         <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>144</v>
       </c>
@@ -1933,25 +2126,28 @@
         <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>144</v>
       </c>
@@ -1959,25 +2155,28 @@
         <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
@@ -1985,25 +2184,28 @@
         <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
@@ -2011,25 +2213,28 @@
         <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="214.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -2037,764 +2242,851 @@
         <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="2" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C72" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="2" t="e">
         <v>#N/A</v>
       </c>
@@ -2804,450 +3096,504 @@
       <c r="H72" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+      <c r="I72" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
@@ -3255,25 +3601,28 @@
         <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>145</v>
       </c>
@@ -3281,25 +3630,28 @@
         <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>145</v>
       </c>
@@ -3307,25 +3659,28 @@
         <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>145</v>
       </c>
@@ -3333,25 +3688,28 @@
         <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>145</v>
       </c>
@@ -3359,25 +3717,28 @@
         <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>145</v>
       </c>
@@ -3385,25 +3746,28 @@
         <v>103</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E95" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>145</v>
       </c>
@@ -3411,25 +3775,28 @@
         <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E96" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>145</v>
       </c>
@@ -3437,25 +3804,28 @@
         <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>145</v>
       </c>
@@ -3463,25 +3833,28 @@
         <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E98" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>145</v>
       </c>
@@ -3489,25 +3862,28 @@
         <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E99" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>145</v>
       </c>
@@ -3515,25 +3891,28 @@
         <v>105</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>145</v>
       </c>
@@ -3541,25 +3920,28 @@
         <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E101" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>145</v>
       </c>
@@ -3567,25 +3949,28 @@
         <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>145</v>
       </c>
@@ -3593,25 +3978,28 @@
         <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>145</v>
       </c>
@@ -3619,25 +4007,28 @@
         <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>145</v>
       </c>
@@ -3645,25 +4036,28 @@
         <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E105" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="99" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>145</v>
       </c>
@@ -3671,25 +4065,28 @@
         <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>145</v>
       </c>
@@ -3697,25 +4094,28 @@
         <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E107" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>145</v>
       </c>
@@ -3723,25 +4123,28 @@
         <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E108" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>145</v>
       </c>
@@ -3749,25 +4152,28 @@
         <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E109" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>145</v>
       </c>
@@ -3775,25 +4181,28 @@
         <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>145</v>
       </c>
@@ -3801,25 +4210,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E111" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>145</v>
       </c>
@@ -3827,25 +4239,28 @@
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E112" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>145</v>
       </c>
@@ -3853,25 +4268,28 @@
         <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E113" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="297" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>145</v>
       </c>
@@ -3879,25 +4297,28 @@
         <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E114" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="297" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -3905,25 +4326,28 @@
         <v>112</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E115" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="297" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
@@ -3931,25 +4355,28 @@
         <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E116" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="396" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>145</v>
       </c>
@@ -3957,25 +4384,28 @@
         <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="396" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -3983,25 +4413,28 @@
         <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="396" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>145</v>
       </c>
@@ -4009,25 +4442,28 @@
         <v>114</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>145</v>
       </c>
@@ -4035,25 +4471,28 @@
         <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E120" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>145</v>
       </c>
@@ -4061,25 +4500,28 @@
         <v>116</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -4087,25 +4529,28 @@
         <v>116</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E122" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
@@ -4113,25 +4558,28 @@
         <v>118</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -4139,25 +4587,28 @@
         <v>118</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E124" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>145</v>
       </c>
@@ -4165,207 +4616,231 @@
         <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E125" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E126" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E129" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E131" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="264" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>145</v>
       </c>
@@ -4373,25 +4848,28 @@
         <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E133" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="66" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="264" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>145</v>
       </c>
@@ -4399,25 +4877,28 @@
         <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E134" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>145</v>
       </c>
@@ -4425,25 +4906,28 @@
         <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="132" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>145</v>
       </c>
@@ -4451,155 +4935,173 @@
         <v>128</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E138" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E139" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E140" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="165" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>146</v>
       </c>
@@ -4607,25 +5109,28 @@
         <v>134</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E142" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="181.5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>146</v>
       </c>
@@ -4633,25 +5138,28 @@
         <v>136</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -4659,25 +5167,28 @@
         <v>138</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E144" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="132" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>72</v>
       </c>
@@ -4685,13 +5196,13 @@
         <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E145" s="2" t="e">
-        <v>#N/A</v>
+      <c r="E145" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="e">
         <v>#N/A</v>
@@ -4702,16 +5213,19 @@
       <c r="H145" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I145" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>147</v>
+      <c r="C146" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>147</v>
@@ -4728,17 +5242,20 @@
       <c r="H146" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I146" s="8"/>
-    </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I146" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>147</v>
+      <c r="C147" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>147</v>
@@ -4755,7 +5272,10 @@
       <c r="H147" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I147" s="8"/>
+      <c r="I147" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J147" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
